--- a/v0.7/StructureDefinition-CommunicationDocument.xlsx
+++ b/v0.7/StructureDefinition-CommunicationDocument.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/HCXCommunicationDocument</t>
+    <t>https://swasth-digital-health-foundation.github.io/standards/v0.7/StructureDefinition-CommunicationDocument.html</t>
   </si>
   <si>
     <t>Version</t>

--- a/v0.7/StructureDefinition-CommunicationDocument.xlsx
+++ b/v0.7/StructureDefinition-CommunicationDocument.xlsx
@@ -1264,7 +1264,7 @@
     <t>Composition.section.entry</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Communication)
+    <t xml:space="preserve">Reference(https://swasth-digital-health-foundation.github.io/standards/v0.7/StructureDefinition-Communication.html)
 </t>
   </si>
   <si>

--- a/v0.7/StructureDefinition-CommunicationDocument.xlsx
+++ b/v0.7/StructureDefinition-CommunicationDocument.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1</t>
+    <t>0.7.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 International - HCX</t>
+    <t>HCX Open Community</t>
   </si>
   <si>
     <t>Contact</t>
